--- a/public/Simulationsvorlage.xlsx
+++ b/public/Simulationsvorlage.xlsx
@@ -3,19 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF010CE7-CED0-4307-BE43-F111A3BA7238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0030B4C-7661-4B76-A189-062F1B1A69F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Seiten" sheetId="2" r:id="rId1"/>
+    <sheet name="Ordner" sheetId="1" r:id="rId1"/>
+    <sheet name="Seiten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>In Ordner</t>
+  </si>
   <si>
     <t>Titel</t>
   </si>
@@ -23,16 +30,34 @@
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>Ihre erste Seite</t>
-  </si>
-  <si>
-    <t>Eine andere Seite</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Seitenbeschreibung ist mit &lt;strong&gt;HTML&lt;/strong&gt; formatiert.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Sie können ihn auch als reinen Text eingeben.</t>
+    <t>Titel eines Seitenordners</t>
+  </si>
+  <si>
+    <t>Ein weiterer Ordner</t>
+  </si>
+  <si>
+    <t>Beispieltitel</t>
+  </si>
+  <si>
+    <t>Zweite Seite</t>
+  </si>
+  <si>
+    <t>Dritte Seite</t>
+  </si>
+  <si>
+    <t>Titel der letzten Seite</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Beschreibung ist normalerweise als &lt;strong&gt;HTML&lt;/strong&gt; formatiert.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Beschreibung ist das, was auf der Seite angezeigt wird.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Es ist auch möglich, normalen Text zu verwenden. Wir werden das Beste daraus machen.</t>
+  </si>
+  <si>
+    <t>Dies ist der Inhalt, der auf der letzten Seite angezeigt wird.</t>
   </si>
 </sst>
 </file>
@@ -414,41 +439,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/Simulationsvorlage.xlsx
+++ b/public/Simulationsvorlage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0030B4C-7661-4B76-A189-062F1B1A69F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D8BAD-A9B2-41CE-8EE0-C8F963EEB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordner" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,11 @@
     <t>&lt;p&gt;Die Beschreibung ist das, was auf der Seite angezeigt wird.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Es ist auch möglich, normalen Text zu verwenden. Wir werden das Beste daraus machen.</t>
-  </si>
-  <si>
     <t>Dies ist der Inhalt, der auf der letzten Seite angezeigt wird.</t>
+  </si>
+  <si>
+    <t>Es ist auch möglich, normalen Text zu verwenden. Wir werden das Beste daraus machen.
+Verwenden Sie die Tastenkombination alt+enter in Excel, um Zeilenumbrüche hinzuzufügen.</t>
   </si>
 </sst>
 </file>
@@ -98,9 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,14 +447,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -485,15 +489,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="80" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -512,7 +516,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -523,7 +527,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -532,26 +536,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/Simulationsvorlage.xlsx
+++ b/public/Simulationsvorlage.xlsx
@@ -1,93 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D8BAD-A9B2-41CE-8EE0-C8F963EEB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ordner" sheetId="1" r:id="rId1"/>
-    <sheet name="Seiten" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ordner" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seiten" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameter" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>In Ordner</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Titel eines Seitenordners</t>
-  </si>
-  <si>
-    <t>Ein weiterer Ordner</t>
-  </si>
-  <si>
-    <t>Beispieltitel</t>
-  </si>
-  <si>
-    <t>Zweite Seite</t>
-  </si>
-  <si>
-    <t>Dritte Seite</t>
-  </si>
-  <si>
-    <t>Titel der letzten Seite</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Beschreibung ist normalerweise als &lt;strong&gt;HTML&lt;/strong&gt; formatiert.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Beschreibung ist das, was auf der Seite angezeigt wird.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Dies ist der Inhalt, der auf der letzten Seite angezeigt wird.</t>
-  </si>
-  <si>
-    <t>Es ist auch möglich, normalen Text zu verwenden. Wir werden das Beste daraus machen.
-Verwenden Sie die Tastenkombination alt+enter in Excel, um Zeilenumbrüche hinzuzufügen.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,30 +47,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -197,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,7 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,16 +281,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -398,168 +416,392 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In Ordner</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Titel</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>folder_intro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Introduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>folder_main</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Main Content</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>folder_sub</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>folder_main</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Advanced Questions</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In Ordner</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Titel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Beschreibung</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Antwortmöglichkeiten (eine pro Zeile, Format: [Beschreibung|Rückmeldung|Folgeseite|UpdateScript])</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>page_intro_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Welcome</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>**Welcome to the simulation!** This is an example simulation.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Start the simulation||page_q1_01|score = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>page_q1_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>folder_main</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>First Question</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3|Incorrect answer!|page_q2_01|score = score - 5
+4|Correct answer!|page_q2_01|score = score + 10
+5|Incorrect answer!|page_q2_01|score = score - 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>page_q2_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>folder_main</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Second Question</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Paris|Correct!|page_end_01|score = score + 10
+London|Incorrect!|page_end_01|score = score - 5
+Berlin|Incorrect!|page_end_01|score = score - 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>page_adv_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>folder_sub</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Advanced Question</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Calculate: 15% of 80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12|Incorrect!|page_end_01|score = score - 5
+12.5|Incorrect!|page_end_01|score = score - 5
+12|Correct!|page_end_01|score = score + 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>page_end_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Thank you for completing the simulation! Your score is **{score}**.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Restart||page_intro_01|score = 0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Beschreibung</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Standardwert</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Minimalwert</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Maximalwert</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>param_score</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Player Score</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>param_health</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Health Points</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>param_money</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Available Funds</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>